--- a/target/classes/excel/dirauto_output.xlsx
+++ b/target/classes/excel/dirauto_output.xlsx
@@ -33,7 +33,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>SirAlwaid</author>
+    <author>MauroWB</author>
   </authors>
   <commentList/>
 </comments>
